--- a/Speakers/Repository-Directory-InterestingPeople.xlsx
+++ b/Speakers/Repository-Directory-InterestingPeople.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19024"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsimo13\OneDrive\Documenti\VT-PGG-GlobalForum\GFURR-Events\GlobalForumSymposium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davon\Documents\GitHub\blockchain-blacksburg\Speakers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="B83ABA31323AA41BF60B1958E3F24E1E61009BE7" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8805" windowHeight="2730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8805" windowHeight="2730"/>
   </bookViews>
   <sheets>
     <sheet name="Outside VT" sheetId="1" r:id="rId1"/>
@@ -659,8 +658,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,14 +1065,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -1089,7 +1088,7 @@
     <col min="13" max="13" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1">
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>97</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="11" customFormat="1">
+    <row r="22" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>102</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="11" customFormat="1">
+    <row r="23" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>107</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="11" customFormat="1">
+    <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="11" customFormat="1">
+    <row r="25" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>116</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="11" customFormat="1">
+    <row r="26" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>120</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="11" customFormat="1">
+    <row r="27" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>124</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="11" customFormat="1">
+    <row r="28" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>129</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="11" customFormat="1">
+    <row r="29" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>133</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="11" customFormat="1">
+    <row r="30" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>137</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="11" customFormat="1">
+    <row r="31" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -1834,7 +1833,7 @@
       </c>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" s="11" customFormat="1">
+    <row r="32" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>146</v>
       </c>
@@ -1848,7 +1847,7 @@
       <c r="L32" s="15"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" s="11" customFormat="1">
+    <row r="33" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>147</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="11" customFormat="1">
+    <row r="34" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>151</v>
       </c>
@@ -1889,7 +1888,7 @@
       <c r="L34" s="1"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" s="11" customFormat="1">
+    <row r="35" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>153</v>
       </c>
@@ -1905,7 +1904,7 @@
       <c r="L35" s="15"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -1953,7 +1952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>163</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -2008,48 +2007,48 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.riskspan.com/team/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E7" r:id="rId2" display="http://finreglab.net/about-us/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" display="https://www.riskspan.com/team/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E6" r:id="rId11" display="Office for Financial Research" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L21" r:id="rId17" display="mailto:jnewsome@deltastrat.com" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L19" r:id="rId20" display="mailto:david.c.mills@frb.gov" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L5" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L22" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L23" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E25" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A31" r:id="rId33" display="https://www.mercatus.org/andrea-osullivan" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L30" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L33" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E33" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L36" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E37" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="L38" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E39" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.riskspan.com/team/"/>
+    <hyperlink ref="E7" r:id="rId2" display="http://finreglab.net/about-us/"/>
+    <hyperlink ref="E3" r:id="rId3" display="https://www.riskspan.com/team/"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E12" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="E8" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E6" r:id="rId11" display="Office for Financial Research"/>
+    <hyperlink ref="E5" r:id="rId12"/>
+    <hyperlink ref="E4" r:id="rId13"/>
+    <hyperlink ref="E21" r:id="rId14"/>
+    <hyperlink ref="E17" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L21" r:id="rId17" display="mailto:jnewsome@deltastrat.com"/>
+    <hyperlink ref="L16" r:id="rId18"/>
+    <hyperlink ref="L18" r:id="rId19"/>
+    <hyperlink ref="L19" r:id="rId20" display="mailto:david.c.mills@frb.gov"/>
+    <hyperlink ref="L20" r:id="rId21"/>
+    <hyperlink ref="L14" r:id="rId22"/>
+    <hyperlink ref="L6" r:id="rId23"/>
+    <hyperlink ref="L5" r:id="rId24"/>
+    <hyperlink ref="L22" r:id="rId25"/>
+    <hyperlink ref="E22" r:id="rId26"/>
+    <hyperlink ref="E23" r:id="rId27"/>
+    <hyperlink ref="L23" r:id="rId28"/>
+    <hyperlink ref="E25" r:id="rId29"/>
+    <hyperlink ref="E26" r:id="rId30"/>
+    <hyperlink ref="E27" r:id="rId31"/>
+    <hyperlink ref="L27" r:id="rId32"/>
+    <hyperlink ref="A31" r:id="rId33" display="https://www.mercatus.org/andrea-osullivan"/>
+    <hyperlink ref="L30" r:id="rId34"/>
+    <hyperlink ref="L33" r:id="rId35"/>
+    <hyperlink ref="E33" r:id="rId36"/>
+    <hyperlink ref="E30" r:id="rId37"/>
+    <hyperlink ref="L36" r:id="rId38"/>
+    <hyperlink ref="E37" r:id="rId39"/>
+    <hyperlink ref="L37" r:id="rId40"/>
+    <hyperlink ref="L38" r:id="rId41"/>
+    <hyperlink ref="E39" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
@@ -2057,14 +2056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
@@ -2075,7 +2074,7 @@
     <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -2172,77 +2171,77 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>197</v>
       </c>
